--- a/data/pca/factorExposure/factorExposure_2011-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-06-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01631344929567365</v>
+        <v>0.01426589058383485</v>
       </c>
       <c r="C2">
-        <v>0.006385662894064148</v>
+        <v>0.0003873578338002863</v>
       </c>
       <c r="D2">
-        <v>0.05805020246281445</v>
+        <v>0.005814788314435194</v>
       </c>
       <c r="E2">
-        <v>0.02691616800172252</v>
+        <v>0.04366406442961198</v>
       </c>
       <c r="F2">
-        <v>0.03609919016342176</v>
+        <v>-0.000340410463831071</v>
       </c>
       <c r="G2">
-        <v>0.01659472783336778</v>
+        <v>-0.02683128803901884</v>
       </c>
       <c r="H2">
-        <v>0.01201615993649672</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.02245620626441974</v>
+      </c>
+      <c r="I2">
+        <v>-0.009725175528288606</v>
+      </c>
+      <c r="J2">
+        <v>-0.0375535537182152</v>
+      </c>
+      <c r="K2">
+        <v>-0.0480801236226184</v>
+      </c>
+      <c r="L2">
+        <v>-0.0196903400430108</v>
+      </c>
+      <c r="M2">
+        <v>0.001918562491167202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.07934294196661806</v>
+        <v>0.1090628766599507</v>
       </c>
       <c r="C4">
-        <v>-0.05448332674997618</v>
+        <v>0.0792429162806952</v>
       </c>
       <c r="D4">
-        <v>0.03198875840678344</v>
+        <v>0.01835573220497762</v>
       </c>
       <c r="E4">
-        <v>0.04868056901027302</v>
+        <v>0.05330212236698639</v>
       </c>
       <c r="F4">
-        <v>0.01905792505723293</v>
+        <v>-0.1327676189984768</v>
       </c>
       <c r="G4">
-        <v>0.01488778739436749</v>
+        <v>0.01967299532771693</v>
       </c>
       <c r="H4">
-        <v>0.01017161507827498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.008934535025502635</v>
+      </c>
+      <c r="I4">
+        <v>-0.06783934108372817</v>
+      </c>
+      <c r="J4">
+        <v>0.004905040937286272</v>
+      </c>
+      <c r="K4">
+        <v>0.08191348368124293</v>
+      </c>
+      <c r="L4">
+        <v>-0.004641876220635137</v>
+      </c>
+      <c r="M4">
+        <v>-0.04380017062573338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1287369893656119</v>
+        <v>0.1310534784063063</v>
       </c>
       <c r="C6">
-        <v>-0.03604060837479085</v>
+        <v>0.04965828066295168</v>
       </c>
       <c r="D6">
-        <v>0.03807589079550982</v>
+        <v>-0.0009465336433904067</v>
       </c>
       <c r="E6">
-        <v>0.06111101034062363</v>
+        <v>-0.000306948214530644</v>
       </c>
       <c r="F6">
-        <v>-0.1067926865547065</v>
+        <v>-0.000588812924336615</v>
       </c>
       <c r="G6">
-        <v>0.004868172808556959</v>
+        <v>0.121989204401894</v>
       </c>
       <c r="H6">
-        <v>-0.2419802838461325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.2052684460531629</v>
+      </c>
+      <c r="I6">
+        <v>-0.3418608324799242</v>
+      </c>
+      <c r="J6">
+        <v>0.2449282324690676</v>
+      </c>
+      <c r="K6">
+        <v>-0.001674889993472989</v>
+      </c>
+      <c r="L6">
+        <v>-0.01961664039166079</v>
+      </c>
+      <c r="M6">
+        <v>0.002447015232825341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07243786898693828</v>
+        <v>0.07231636689133106</v>
       </c>
       <c r="C7">
-        <v>-0.05678261285386687</v>
+        <v>0.07048781978108995</v>
       </c>
       <c r="D7">
-        <v>0.05758359668670982</v>
+        <v>0.009930005513646574</v>
       </c>
       <c r="E7">
-        <v>0.04281676249888587</v>
+        <v>0.05669692241410954</v>
       </c>
       <c r="F7">
-        <v>-0.03638025949208162</v>
+        <v>-0.02076939953276622</v>
       </c>
       <c r="G7">
-        <v>-0.0001494852942429664</v>
+        <v>0.0105141802986316</v>
       </c>
       <c r="H7">
-        <v>0.01909921447881251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.01666584924733946</v>
+      </c>
+      <c r="I7">
+        <v>0.02847151385027958</v>
+      </c>
+      <c r="J7">
+        <v>-0.03426473860634705</v>
+      </c>
+      <c r="K7">
+        <v>0.1048364173266184</v>
+      </c>
+      <c r="L7">
+        <v>-0.03113477617148963</v>
+      </c>
+      <c r="M7">
+        <v>0.01591741873258224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.0304418291901122</v>
+        <v>0.04104913658286868</v>
       </c>
       <c r="C8">
-        <v>-0.01498509029174032</v>
+        <v>0.008990706878997421</v>
       </c>
       <c r="D8">
-        <v>0.05067603292424248</v>
+        <v>0.01204318964948704</v>
       </c>
       <c r="E8">
-        <v>0.05112023026312953</v>
+        <v>0.04865333236635843</v>
       </c>
       <c r="F8">
-        <v>0.0142024716926251</v>
+        <v>-0.1022561072155344</v>
       </c>
       <c r="G8">
-        <v>0.05689695361669434</v>
+        <v>0.005199354335204682</v>
       </c>
       <c r="H8">
-        <v>0.02437775870079175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.007659387773880169</v>
+      </c>
+      <c r="I8">
+        <v>-0.07286559488998991</v>
+      </c>
+      <c r="J8">
+        <v>-0.01053364838633388</v>
+      </c>
+      <c r="K8">
+        <v>0.04981297676123682</v>
+      </c>
+      <c r="L8">
+        <v>-0.03038809808362441</v>
+      </c>
+      <c r="M8">
+        <v>-0.05347875278073988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07607672460720337</v>
+        <v>0.08482574323974561</v>
       </c>
       <c r="C9">
-        <v>-0.06328929055358387</v>
+        <v>0.07449393080704723</v>
       </c>
       <c r="D9">
-        <v>0.03777207163892923</v>
+        <v>-0.0009893254662970937</v>
       </c>
       <c r="E9">
-        <v>0.04320440938505524</v>
+        <v>0.03476202105261571</v>
       </c>
       <c r="F9">
-        <v>0.03069385634560906</v>
+        <v>-0.1271568337647565</v>
       </c>
       <c r="G9">
-        <v>0.01485269237998114</v>
+        <v>0.02605939092126364</v>
       </c>
       <c r="H9">
-        <v>0.001500448523917886</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.006157716740767629</v>
+      </c>
+      <c r="I9">
+        <v>-0.02765572852119744</v>
+      </c>
+      <c r="J9">
+        <v>-0.001839162148043994</v>
+      </c>
+      <c r="K9">
+        <v>0.05585050880120492</v>
+      </c>
+      <c r="L9">
+        <v>-0.02828483684585624</v>
+      </c>
+      <c r="M9">
+        <v>0.0134769041521413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05780503636245671</v>
+        <v>0.1136063167959145</v>
       </c>
       <c r="C10">
-        <v>0.1395910656322772</v>
+        <v>-0.1652548133521215</v>
       </c>
       <c r="D10">
-        <v>0.06697503884803191</v>
+        <v>0.005865094485092922</v>
       </c>
       <c r="E10">
-        <v>0.03436153238862792</v>
+        <v>0.0513766996501239</v>
       </c>
       <c r="F10">
-        <v>-0.04078388268447103</v>
+        <v>0.01207607522081639</v>
       </c>
       <c r="G10">
-        <v>-0.001801969487899893</v>
+        <v>0.01553153966438348</v>
       </c>
       <c r="H10">
-        <v>-0.01314565824578339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.002592716925985366</v>
+      </c>
+      <c r="I10">
+        <v>0.05890349760705602</v>
+      </c>
+      <c r="J10">
+        <v>-0.0003432923488873712</v>
+      </c>
+      <c r="K10">
+        <v>0.0154711629198115</v>
+      </c>
+      <c r="L10">
+        <v>-0.001757736334151977</v>
+      </c>
+      <c r="M10">
+        <v>0.1190667620720349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07229291519985684</v>
+        <v>0.06878759114966485</v>
       </c>
       <c r="C11">
-        <v>-0.08411706189818625</v>
+        <v>0.07492960859860574</v>
       </c>
       <c r="D11">
-        <v>0.03000516290206464</v>
+        <v>-0.02792392965355494</v>
       </c>
       <c r="E11">
-        <v>0.00812560616051297</v>
+        <v>0.01364877361670954</v>
       </c>
       <c r="F11">
-        <v>0.05041232949778451</v>
+        <v>-0.117274296275246</v>
       </c>
       <c r="G11">
-        <v>0.06979587890495105</v>
+        <v>0.02477008670232532</v>
       </c>
       <c r="H11">
-        <v>0.04543037129217443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.001770162728901926</v>
+      </c>
+      <c r="I11">
+        <v>0.07551302378306915</v>
+      </c>
+      <c r="J11">
+        <v>-0.05949837639531872</v>
+      </c>
+      <c r="K11">
+        <v>-0.003599979334368694</v>
+      </c>
+      <c r="L11">
+        <v>-0.05935702585266796</v>
+      </c>
+      <c r="M11">
+        <v>0.1244303547465151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07030334473083709</v>
+        <v>0.06933874024530405</v>
       </c>
       <c r="C12">
-        <v>-0.05915566790925301</v>
+        <v>0.06710684744684578</v>
       </c>
       <c r="D12">
-        <v>0.01873889289703577</v>
+        <v>-0.02740628065995854</v>
       </c>
       <c r="E12">
-        <v>0.03291303664535128</v>
+        <v>0.005074648327206171</v>
       </c>
       <c r="F12">
-        <v>0.001054743182067201</v>
+        <v>-0.1204009695057902</v>
       </c>
       <c r="G12">
-        <v>0.04636964053404862</v>
+        <v>0.02246275526276667</v>
       </c>
       <c r="H12">
-        <v>0.0386994280868081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.01877046842644894</v>
+      </c>
+      <c r="I12">
+        <v>0.0496202722060998</v>
+      </c>
+      <c r="J12">
+        <v>-0.07983414887107024</v>
+      </c>
+      <c r="K12">
+        <v>0.02289179108670595</v>
+      </c>
+      <c r="L12">
+        <v>-0.07416421384850501</v>
+      </c>
+      <c r="M12">
+        <v>0.1450160316129344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05666349137692837</v>
+        <v>0.0460999350701246</v>
       </c>
       <c r="C13">
-        <v>-0.01383318135632306</v>
+        <v>0.03086835240317804</v>
       </c>
       <c r="D13">
-        <v>-0.001230302279515347</v>
+        <v>0.02163973474908825</v>
       </c>
       <c r="E13">
-        <v>0.01888679435635123</v>
+        <v>0.01132316492806236</v>
       </c>
       <c r="F13">
-        <v>0.05342243245116707</v>
+        <v>-0.04065305948572034</v>
       </c>
       <c r="G13">
-        <v>-0.0114645099195397</v>
+        <v>-0.009710953241892986</v>
       </c>
       <c r="H13">
-        <v>-0.009144909887301392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.006780685983962646</v>
+      </c>
+      <c r="I13">
+        <v>-0.01432824374206491</v>
+      </c>
+      <c r="J13">
+        <v>0.0001827885008834146</v>
+      </c>
+      <c r="K13">
+        <v>0.0416511518002538</v>
+      </c>
+      <c r="L13">
+        <v>0.01412337072251603</v>
+      </c>
+      <c r="M13">
+        <v>-0.03935186161263662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.04853926918139514</v>
+        <v>0.04113394854559182</v>
       </c>
       <c r="C14">
-        <v>-0.02378262734793939</v>
+        <v>0.03096575131996735</v>
       </c>
       <c r="D14">
-        <v>0.02294995254026198</v>
+        <v>-0.01401875219071485</v>
       </c>
       <c r="E14">
-        <v>0.01482803953747546</v>
+        <v>0.01801237269953274</v>
       </c>
       <c r="F14">
-        <v>-0.01882016551746229</v>
+        <v>-0.06288510798325454</v>
       </c>
       <c r="G14">
-        <v>0.01351763621770671</v>
+        <v>-0.01478897874608718</v>
       </c>
       <c r="H14">
-        <v>-0.06920924073750118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03470507423640725</v>
+      </c>
+      <c r="I14">
+        <v>-0.04426100809519924</v>
+      </c>
+      <c r="J14">
+        <v>0.03224445350146862</v>
+      </c>
+      <c r="K14">
+        <v>0.08399747480678864</v>
+      </c>
+      <c r="L14">
+        <v>-0.009371023696300851</v>
+      </c>
+      <c r="M14">
+        <v>-0.01371165874108907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03990299944582099</v>
+        <v>0.02666149055321792</v>
       </c>
       <c r="C15">
-        <v>0.004223948862643535</v>
+        <v>0.009382157116741219</v>
       </c>
       <c r="D15">
-        <v>-0.006149020418613324</v>
+        <v>0.05665976589386308</v>
       </c>
       <c r="E15">
-        <v>0.02559634130754883</v>
+        <v>0.002986756677175783</v>
       </c>
       <c r="F15">
-        <v>0.007466646178685288</v>
+        <v>-0.000170992741373354</v>
       </c>
       <c r="G15">
-        <v>-0.01279262981274758</v>
+        <v>0.03459253687868751</v>
       </c>
       <c r="H15">
-        <v>-0.007655535820342538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.0385442547746729</v>
+      </c>
+      <c r="I15">
+        <v>-0.04738101187875784</v>
+      </c>
+      <c r="J15">
+        <v>0.01700166588186119</v>
+      </c>
+      <c r="K15">
+        <v>0.06485705949398925</v>
+      </c>
+      <c r="L15">
+        <v>0.01832860249315578</v>
+      </c>
+      <c r="M15">
+        <v>0.01112070581349804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06164272824290286</v>
+        <v>0.07234027404061136</v>
       </c>
       <c r="C16">
-        <v>-0.08241263268968677</v>
+        <v>0.08057242803326571</v>
       </c>
       <c r="D16">
-        <v>0.02664713625133869</v>
+        <v>-0.01811118556414334</v>
       </c>
       <c r="E16">
-        <v>0.03282879092007053</v>
+        <v>0.0142375561119983</v>
       </c>
       <c r="F16">
-        <v>0.04373087372968847</v>
+        <v>-0.1148707105530178</v>
       </c>
       <c r="G16">
-        <v>0.0465841528688819</v>
+        <v>0.009610845770077805</v>
       </c>
       <c r="H16">
-        <v>0.03833793464312607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.006508304802556494</v>
+      </c>
+      <c r="I16">
+        <v>0.05818017826060276</v>
+      </c>
+      <c r="J16">
+        <v>-0.06814485059109827</v>
+      </c>
+      <c r="K16">
+        <v>0.02187779132247767</v>
+      </c>
+      <c r="L16">
+        <v>-0.07921519829737797</v>
+      </c>
+      <c r="M16">
+        <v>0.1183066539302873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.0422690742613451</v>
+        <v>0.04605171182693821</v>
       </c>
       <c r="C20">
-        <v>-0.04251121095557661</v>
+        <v>0.03251323865156062</v>
       </c>
       <c r="D20">
-        <v>0.00881743169147662</v>
+        <v>0.02590453414707027</v>
       </c>
       <c r="E20">
-        <v>0.01926592849946043</v>
+        <v>0.019999861888428</v>
       </c>
       <c r="F20">
-        <v>0.0223308846673887</v>
+        <v>-0.06600504733216207</v>
       </c>
       <c r="G20">
-        <v>0.01870312593714534</v>
+        <v>-0.005217170291075303</v>
       </c>
       <c r="H20">
-        <v>0.001025309323469462</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.009774242935395418</v>
+      </c>
+      <c r="I20">
+        <v>-0.006423551476806035</v>
+      </c>
+      <c r="J20">
+        <v>-0.0007083616372176815</v>
+      </c>
+      <c r="K20">
+        <v>0.0814030173835646</v>
+      </c>
+      <c r="L20">
+        <v>-0.04347100513058372</v>
+      </c>
+      <c r="M20">
+        <v>0.010033530454447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02464647551449492</v>
+        <v>0.02672385808968938</v>
       </c>
       <c r="C21">
-        <v>-0.03371162172161105</v>
+        <v>0.02413724374153424</v>
       </c>
       <c r="D21">
-        <v>0.0009387462908296354</v>
+        <v>0.0074788398637466</v>
       </c>
       <c r="E21">
-        <v>0.06035948174172295</v>
+        <v>0.02327665084103802</v>
       </c>
       <c r="F21">
-        <v>-0.06886367437545507</v>
+        <v>-0.05226696989969284</v>
       </c>
       <c r="G21">
-        <v>0.002686394700227563</v>
+        <v>0.1066526775503557</v>
       </c>
       <c r="H21">
-        <v>-0.004118379144348118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.02583848492159147</v>
+      </c>
+      <c r="I21">
+        <v>0.03017344426640224</v>
+      </c>
+      <c r="J21">
+        <v>0.02825359281284971</v>
+      </c>
+      <c r="K21">
+        <v>0.09903492553928071</v>
+      </c>
+      <c r="L21">
+        <v>0.009327848800908197</v>
+      </c>
+      <c r="M21">
+        <v>0.01773358428253593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01272716401563668</v>
+        <v>0.04287307472826953</v>
       </c>
       <c r="C22">
-        <v>-0.03897651147650607</v>
+        <v>0.02153666853888324</v>
       </c>
       <c r="D22">
-        <v>-0.113947842273378</v>
+        <v>0.6568625130869371</v>
       </c>
       <c r="E22">
-        <v>0.5111946799334286</v>
+        <v>0.04235688501766746</v>
       </c>
       <c r="F22">
-        <v>0.1083713039245227</v>
+        <v>0.06013341468059656</v>
       </c>
       <c r="G22">
-        <v>-0.272881439462956</v>
+        <v>-0.08636503140660888</v>
       </c>
       <c r="H22">
-        <v>0.185935851785112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.09073460422161125</v>
+      </c>
+      <c r="I22">
+        <v>0.1053508296352508</v>
+      </c>
+      <c r="J22">
+        <v>0.04729383682712011</v>
+      </c>
+      <c r="K22">
+        <v>-0.01794820566956348</v>
+      </c>
+      <c r="L22">
+        <v>-0.009446421681931168</v>
+      </c>
+      <c r="M22">
+        <v>0.003605488960444542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01142437452751316</v>
+        <v>0.04310076742545665</v>
       </c>
       <c r="C23">
-        <v>-0.03739481787105955</v>
+        <v>0.0217251446870067</v>
       </c>
       <c r="D23">
-        <v>-0.1136167905864865</v>
+        <v>0.6583432403731078</v>
       </c>
       <c r="E23">
-        <v>0.5098793069324571</v>
+        <v>0.04287439583783127</v>
       </c>
       <c r="F23">
-        <v>0.1076598019823083</v>
+        <v>0.0571884048980898</v>
       </c>
       <c r="G23">
-        <v>-0.2732775701051969</v>
+        <v>-0.08729895173874506</v>
       </c>
       <c r="H23">
-        <v>0.1833940645316791</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.09180239528224232</v>
+      </c>
+      <c r="I23">
+        <v>0.1019130902298992</v>
+      </c>
+      <c r="J23">
+        <v>0.04781737872510639</v>
+      </c>
+      <c r="K23">
+        <v>-0.01997149327009441</v>
+      </c>
+      <c r="L23">
+        <v>-0.01046926519847886</v>
+      </c>
+      <c r="M23">
+        <v>0.003234089458259473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07714975081124842</v>
+        <v>0.07741057798312609</v>
       </c>
       <c r="C24">
-        <v>-0.07333083450916723</v>
+        <v>0.07869383687101472</v>
       </c>
       <c r="D24">
-        <v>0.03060540357944193</v>
+        <v>-0.01343266670551461</v>
       </c>
       <c r="E24">
-        <v>0.03767042808728904</v>
+        <v>0.01698355902548789</v>
       </c>
       <c r="F24">
-        <v>0.03027934045640662</v>
+        <v>-0.1159179397951995</v>
       </c>
       <c r="G24">
-        <v>0.04836575678491517</v>
+        <v>0.01827082828640629</v>
       </c>
       <c r="H24">
-        <v>0.02695117006541784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.007795304996026085</v>
+      </c>
+      <c r="I24">
+        <v>0.05696571762095519</v>
+      </c>
+      <c r="J24">
+        <v>-0.05197179603470688</v>
+      </c>
+      <c r="K24">
+        <v>-0.006788956944696476</v>
+      </c>
+      <c r="L24">
+        <v>-0.07051435877507324</v>
+      </c>
+      <c r="M24">
+        <v>0.1164946117691291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.06739264155194064</v>
+        <v>0.07304108994726885</v>
       </c>
       <c r="C25">
-        <v>-0.04209288703312692</v>
+        <v>0.05277637103833993</v>
       </c>
       <c r="D25">
-        <v>0.02817705530012458</v>
+        <v>-0.03180309909276215</v>
       </c>
       <c r="E25">
-        <v>0.04238405620011718</v>
+        <v>0.01541728108721471</v>
       </c>
       <c r="F25">
-        <v>0.04284685610931905</v>
+        <v>-0.1225868052501268</v>
       </c>
       <c r="G25">
-        <v>0.06126187113519356</v>
+        <v>0.006164278001950423</v>
       </c>
       <c r="H25">
-        <v>0.002840480763898913</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.0009244039069375718</v>
+      </c>
+      <c r="I25">
+        <v>0.04865024205699246</v>
+      </c>
+      <c r="J25">
+        <v>-0.05132657244156526</v>
+      </c>
+      <c r="K25">
+        <v>-0.01922444535391381</v>
+      </c>
+      <c r="L25">
+        <v>-0.08659060332096778</v>
+      </c>
+      <c r="M25">
+        <v>0.1253368430417391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04256885510625409</v>
+        <v>0.04363495885641281</v>
       </c>
       <c r="C26">
-        <v>-0.03750349425710624</v>
+        <v>0.02188377421289964</v>
       </c>
       <c r="D26">
-        <v>0.03926942791737335</v>
+        <v>0.01308554931732315</v>
       </c>
       <c r="E26">
-        <v>0.002090820379792776</v>
+        <v>-0.0008824307517177685</v>
       </c>
       <c r="F26">
-        <v>0.008315603902630421</v>
+        <v>-0.03683505050892668</v>
       </c>
       <c r="G26">
-        <v>-0.02554996202627207</v>
+        <v>-0.001619835896127123</v>
       </c>
       <c r="H26">
-        <v>0.01349353807028641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.01132165337666769</v>
+      </c>
+      <c r="I26">
+        <v>0.01995151961428832</v>
+      </c>
+      <c r="J26">
+        <v>0.03112531929083538</v>
+      </c>
+      <c r="K26">
+        <v>0.151268228435575</v>
+      </c>
+      <c r="L26">
+        <v>0.02840333743451563</v>
+      </c>
+      <c r="M26">
+        <v>-0.0007269561776053425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.1050009596757423</v>
+        <v>0.1473600523342712</v>
       </c>
       <c r="C28">
-        <v>0.2968634902429397</v>
+        <v>-0.2844082349658729</v>
       </c>
       <c r="D28">
-        <v>0.04478761404640302</v>
+        <v>-0.009474020290594637</v>
       </c>
       <c r="E28">
-        <v>-0.0002670198862570681</v>
+        <v>0.02549090509864544</v>
       </c>
       <c r="F28">
-        <v>-0.04922115588638636</v>
+        <v>-0.002952632756707374</v>
       </c>
       <c r="G28">
-        <v>-0.01093004148311113</v>
+        <v>0.008613447182979571</v>
       </c>
       <c r="H28">
-        <v>0.05672123084962433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.02144977071415451</v>
+      </c>
+      <c r="I28">
+        <v>-0.002268602687466256</v>
+      </c>
+      <c r="J28">
+        <v>-0.0158955435101391</v>
+      </c>
+      <c r="K28">
+        <v>0.0328019371008663</v>
+      </c>
+      <c r="L28">
+        <v>0.01350979062731054</v>
+      </c>
+      <c r="M28">
+        <v>-0.01790987401488586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05280763759553294</v>
+        <v>0.04034700004264293</v>
       </c>
       <c r="C29">
-        <v>-0.0186917778541103</v>
+        <v>0.02953725757531097</v>
       </c>
       <c r="D29">
-        <v>0.0116582038820315</v>
+        <v>-0.002396369561842835</v>
       </c>
       <c r="E29">
-        <v>0.02720398739224304</v>
+        <v>0.02136294822965188</v>
       </c>
       <c r="F29">
-        <v>0.006185893360203596</v>
+        <v>-0.05607442758159374</v>
       </c>
       <c r="G29">
-        <v>-0.01112405177739428</v>
+        <v>-0.01355119387782719</v>
       </c>
       <c r="H29">
-        <v>-0.005811769242094886</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.01652408395048507</v>
+      </c>
+      <c r="I29">
+        <v>-0.02285575550180508</v>
+      </c>
+      <c r="J29">
+        <v>0.02344190317163822</v>
+      </c>
+      <c r="K29">
+        <v>0.07862730477975904</v>
+      </c>
+      <c r="L29">
+        <v>-0.01577990717639003</v>
+      </c>
+      <c r="M29">
+        <v>0.008172565671636045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1309470011008884</v>
+        <v>0.1019442727654383</v>
       </c>
       <c r="C30">
-        <v>-0.05092987569180465</v>
+        <v>0.06590859900622008</v>
       </c>
       <c r="D30">
-        <v>0.05471735140266188</v>
+        <v>0.00493921174803465</v>
       </c>
       <c r="E30">
-        <v>0.1376876793112539</v>
+        <v>0.03469041034433044</v>
       </c>
       <c r="F30">
-        <v>-0.01109261628158611</v>
+        <v>-0.2012035360047303</v>
       </c>
       <c r="G30">
-        <v>0.1622451105583513</v>
+        <v>-0.01365181235506724</v>
       </c>
       <c r="H30">
-        <v>0.02665240371543682</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2384926919860325</v>
+      </c>
+      <c r="I30">
+        <v>0.07966471447822872</v>
+      </c>
+      <c r="J30">
+        <v>0.07911348851827031</v>
+      </c>
+      <c r="K30">
+        <v>0.1535966331886817</v>
+      </c>
+      <c r="L30">
+        <v>-0.01685119247367663</v>
+      </c>
+      <c r="M30">
+        <v>-0.3874638277405411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04984603427699347</v>
+        <v>0.03569368822891682</v>
       </c>
       <c r="C31">
-        <v>-0.02483775688801004</v>
+        <v>0.04755614371872175</v>
       </c>
       <c r="D31">
-        <v>-0.008009273304432475</v>
+        <v>0.00518950826490131</v>
       </c>
       <c r="E31">
-        <v>-0.001082160672933405</v>
+        <v>-0.008228205226392863</v>
       </c>
       <c r="F31">
-        <v>0.0118478760036134</v>
+        <v>-0.02663362077150725</v>
       </c>
       <c r="G31">
-        <v>-0.03795054448965697</v>
+        <v>-0.02232265498669818</v>
       </c>
       <c r="H31">
-        <v>-0.0108610016421387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.03688088749958602</v>
+      </c>
+      <c r="I31">
+        <v>-0.02498356558245413</v>
+      </c>
+      <c r="J31">
+        <v>-0.009533127306820105</v>
+      </c>
+      <c r="K31">
+        <v>0.02636345643227381</v>
+      </c>
+      <c r="L31">
+        <v>-0.02449168041202991</v>
+      </c>
+      <c r="M31">
+        <v>-0.003498846703426307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01912888602597001</v>
+        <v>0.04281432131894465</v>
       </c>
       <c r="C32">
-        <v>0.01370080464895377</v>
+        <v>-0.001733549940471941</v>
       </c>
       <c r="D32">
-        <v>-0.01286248799650559</v>
+        <v>-0.01471454915887181</v>
       </c>
       <c r="E32">
-        <v>0.08177988276440841</v>
+        <v>0.002204080740205238</v>
       </c>
       <c r="F32">
-        <v>0.07791374301459709</v>
+        <v>-0.0871278777287708</v>
       </c>
       <c r="G32">
-        <v>0.03104899366609642</v>
+        <v>0.01923874040302485</v>
       </c>
       <c r="H32">
-        <v>0.03531588773209818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.08420181314810601</v>
+      </c>
+      <c r="I32">
+        <v>-0.01153208142180014</v>
+      </c>
+      <c r="J32">
+        <v>-0.02933833691163757</v>
+      </c>
+      <c r="K32">
+        <v>0.01632142881902747</v>
+      </c>
+      <c r="L32">
+        <v>0.0253261145025365</v>
+      </c>
+      <c r="M32">
+        <v>-0.1434150655677368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1013960377686594</v>
+        <v>0.09971044979070891</v>
       </c>
       <c r="C33">
-        <v>-0.04436630015088733</v>
+        <v>0.06787175038340844</v>
       </c>
       <c r="D33">
-        <v>0.004704193142292953</v>
+        <v>-0.01222619402227287</v>
       </c>
       <c r="E33">
-        <v>0.01936203912237798</v>
+        <v>-0.01215915553417445</v>
       </c>
       <c r="F33">
-        <v>0.05188686393327591</v>
+        <v>-0.07670811954184857</v>
       </c>
       <c r="G33">
-        <v>0.01731055689652653</v>
+        <v>-0.01992099242443532</v>
       </c>
       <c r="H33">
-        <v>0.003134611260674637</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.006796552170447502</v>
+      </c>
+      <c r="I33">
+        <v>0.0003289726993880796</v>
+      </c>
+      <c r="J33">
+        <v>0.05867450511822342</v>
+      </c>
+      <c r="K33">
+        <v>0.0228288028262869</v>
+      </c>
+      <c r="L33">
+        <v>0.002700674235432232</v>
+      </c>
+      <c r="M33">
+        <v>0.0148913324371115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05595614476848735</v>
+        <v>0.06332346621687877</v>
       </c>
       <c r="C34">
-        <v>-0.0765168507250485</v>
+        <v>0.06794007054475493</v>
       </c>
       <c r="D34">
-        <v>0.01847168182462161</v>
+        <v>-0.02116528061731914</v>
       </c>
       <c r="E34">
-        <v>0.02276535498190236</v>
+        <v>0.0092282951451689</v>
       </c>
       <c r="F34">
-        <v>0.0296442216914537</v>
+        <v>-0.1037427685690774</v>
       </c>
       <c r="G34">
-        <v>0.03605677085173142</v>
+        <v>0.01609034810229155</v>
       </c>
       <c r="H34">
-        <v>0.02595305955306662</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.01742275337423956</v>
+      </c>
+      <c r="I34">
+        <v>0.04698866139392754</v>
+      </c>
+      <c r="J34">
+        <v>-0.05599401877913868</v>
+      </c>
+      <c r="K34">
+        <v>0.02055710891371923</v>
+      </c>
+      <c r="L34">
+        <v>-0.07214440080084743</v>
+      </c>
+      <c r="M34">
+        <v>0.1326896907569536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04567708130004134</v>
+        <v>0.02537420237797949</v>
       </c>
       <c r="C35">
-        <v>-0.04527979421643473</v>
+        <v>0.02874576274196308</v>
       </c>
       <c r="D35">
-        <v>0.007533284924841434</v>
+        <v>-0.0008522419099089424</v>
       </c>
       <c r="E35">
-        <v>0.01953150014385887</v>
+        <v>-0.0002458693194662085</v>
       </c>
       <c r="F35">
-        <v>0.008743668447822924</v>
+        <v>-0.03333269239905873</v>
       </c>
       <c r="G35">
-        <v>0.021705734939861</v>
+        <v>-0.001503448462528248</v>
       </c>
       <c r="H35">
-        <v>-0.005468248247500732</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.004814929334651348</v>
+      </c>
+      <c r="I35">
+        <v>0.03162682879176972</v>
+      </c>
+      <c r="J35">
+        <v>-0.0150508766462045</v>
+      </c>
+      <c r="K35">
+        <v>0.06835254432195455</v>
+      </c>
+      <c r="L35">
+        <v>-0.03112608772755258</v>
+      </c>
+      <c r="M35">
+        <v>0.0008174593939284907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03611470048659933</v>
+        <v>0.02894334643850876</v>
       </c>
       <c r="C36">
-        <v>-0.0222776290238721</v>
+        <v>0.0205614065081292</v>
       </c>
       <c r="D36">
-        <v>0.02644255885970794</v>
+        <v>0.01369179636283512</v>
       </c>
       <c r="E36">
-        <v>0.03853490096642885</v>
+        <v>0.01193610535498753</v>
       </c>
       <c r="F36">
-        <v>0.0307340842940837</v>
+        <v>-0.06565778861784928</v>
       </c>
       <c r="G36">
-        <v>0.01421126966467222</v>
+        <v>0.001017082701821861</v>
       </c>
       <c r="H36">
-        <v>-0.02386462781580213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.01121943173142717</v>
+      </c>
+      <c r="I36">
+        <v>-0.01247409442732555</v>
+      </c>
+      <c r="J36">
+        <v>0.02394893109604539</v>
+      </c>
+      <c r="K36">
+        <v>0.05948989655530612</v>
+      </c>
+      <c r="L36">
+        <v>-0.01417302412169698</v>
+      </c>
+      <c r="M36">
+        <v>0.03748922827806325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.04356531197419222</v>
+        <v>0.02804156821652454</v>
       </c>
       <c r="C38">
-        <v>-0.03471085838122436</v>
+        <v>0.04834684450538852</v>
       </c>
       <c r="D38">
-        <v>-0.0163052090047313</v>
+        <v>0.02418194454487736</v>
       </c>
       <c r="E38">
-        <v>0.03987089755547375</v>
+        <v>0.004377040773325547</v>
       </c>
       <c r="F38">
-        <v>0.04504586455828216</v>
+        <v>0.05225721533469612</v>
       </c>
       <c r="G38">
-        <v>0.003741875694453636</v>
+        <v>-0.05600922568613238</v>
       </c>
       <c r="H38">
-        <v>0.05200835157967767</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.009927593428849413</v>
+      </c>
+      <c r="I38">
+        <v>0.0505358436592056</v>
+      </c>
+      <c r="J38">
+        <v>0.05393271149047046</v>
+      </c>
+      <c r="K38">
+        <v>0.04752518543144165</v>
+      </c>
+      <c r="L38">
+        <v>0.1039330695010835</v>
+      </c>
+      <c r="M38">
+        <v>-0.07688630760081075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09980479030672505</v>
+        <v>0.1032155633638747</v>
       </c>
       <c r="C39">
-        <v>-0.09246638219938264</v>
+        <v>0.09515039655066035</v>
       </c>
       <c r="D39">
-        <v>0.01017569259832415</v>
+        <v>-0.08189949610452701</v>
       </c>
       <c r="E39">
-        <v>0.03689440458474343</v>
+        <v>-0.02703041841134404</v>
       </c>
       <c r="F39">
-        <v>0.02478729668349376</v>
+        <v>-0.171452908977313</v>
       </c>
       <c r="G39">
-        <v>0.0906017907139845</v>
+        <v>-0.05318513955833905</v>
       </c>
       <c r="H39">
-        <v>0.09795372170819469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08801564408618458</v>
+      </c>
+      <c r="I39">
+        <v>0.1409351201301245</v>
+      </c>
+      <c r="J39">
+        <v>-0.1357962833024716</v>
+      </c>
+      <c r="K39">
+        <v>-0.008316287437568804</v>
+      </c>
+      <c r="L39">
+        <v>-0.1388783360363772</v>
+      </c>
+      <c r="M39">
+        <v>-0.04831835323474547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04311157305207149</v>
+        <v>0.03286660630374138</v>
       </c>
       <c r="C40">
-        <v>-0.03968560994026071</v>
+        <v>0.05959550167531089</v>
       </c>
       <c r="D40">
-        <v>-0.0502536973929665</v>
+        <v>0.04776307120433283</v>
       </c>
       <c r="E40">
-        <v>0.1228550383028344</v>
+        <v>0.005544056896713233</v>
       </c>
       <c r="F40">
-        <v>0.07546666783255197</v>
+        <v>-0.1066545133592209</v>
       </c>
       <c r="G40">
-        <v>0.08895302971785141</v>
+        <v>0.08123043880938259</v>
       </c>
       <c r="H40">
-        <v>0.1024792532187974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.002594810696669053</v>
+      </c>
+      <c r="I40">
+        <v>0.08056774527880882</v>
+      </c>
+      <c r="J40">
+        <v>0.04261732877730302</v>
+      </c>
+      <c r="K40">
+        <v>0.05821418208105412</v>
+      </c>
+      <c r="L40">
+        <v>0.117780047466892</v>
+      </c>
+      <c r="M40">
+        <v>-0.05677289819178678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04703424452696862</v>
+        <v>0.03789585418568252</v>
       </c>
       <c r="C41">
-        <v>-0.04967383556581006</v>
+        <v>0.03718599801793374</v>
       </c>
       <c r="D41">
-        <v>0.008120606975526029</v>
+        <v>-0.01371685635861268</v>
       </c>
       <c r="E41">
-        <v>0.005194123511651778</v>
+        <v>-0.001784312116163438</v>
       </c>
       <c r="F41">
-        <v>0.03105503861848472</v>
+        <v>-0.0189125337241224</v>
       </c>
       <c r="G41">
-        <v>0.007808697057251221</v>
+        <v>-0.01560119449447669</v>
       </c>
       <c r="H41">
-        <v>0.02195224807086588</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.01510493873288994</v>
+      </c>
+      <c r="I41">
+        <v>0.01900552713408388</v>
+      </c>
+      <c r="J41">
+        <v>-0.01709555796985281</v>
+      </c>
+      <c r="K41">
+        <v>0.04922662083002865</v>
+      </c>
+      <c r="L41">
+        <v>0.01132584139154366</v>
+      </c>
+      <c r="M41">
+        <v>0.03722140849473681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06108408427392585</v>
+        <v>0.05006982060245722</v>
       </c>
       <c r="C43">
-        <v>-0.03734934756841883</v>
+        <v>0.04435343820376089</v>
       </c>
       <c r="D43">
-        <v>0.02725504125408312</v>
+        <v>0.01390195337839502</v>
       </c>
       <c r="E43">
-        <v>0.0362621664370844</v>
+        <v>0.01076577113129264</v>
       </c>
       <c r="F43">
-        <v>0.01611689319194981</v>
+        <v>-0.01168152781314285</v>
       </c>
       <c r="G43">
-        <v>-0.0132501944779455</v>
+        <v>-0.04315534542855006</v>
       </c>
       <c r="H43">
-        <v>0.02112399078589951</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.01223506876013301</v>
+      </c>
+      <c r="I43">
+        <v>0.003199706390319653</v>
+      </c>
+      <c r="J43">
+        <v>-0.02935183969477459</v>
+      </c>
+      <c r="K43">
+        <v>0.03690274995460769</v>
+      </c>
+      <c r="L43">
+        <v>-0.01258808241154883</v>
+      </c>
+      <c r="M43">
+        <v>0.03563907699628328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.04949433498810872</v>
+        <v>0.08426943301506146</v>
       </c>
       <c r="C44">
-        <v>-0.01056406506255767</v>
+        <v>0.05807410702651308</v>
       </c>
       <c r="D44">
-        <v>0.07455764321958666</v>
+        <v>0.07972188432131999</v>
       </c>
       <c r="E44">
-        <v>0.1049894690165481</v>
+        <v>0.1074708252770366</v>
       </c>
       <c r="F44">
-        <v>0.0428387760461549</v>
+        <v>-0.1717567016228489</v>
       </c>
       <c r="G44">
-        <v>0.1150027738233998</v>
+        <v>0.01157123098810675</v>
       </c>
       <c r="H44">
-        <v>0.01428673036485052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.01790695477063278</v>
+      </c>
+      <c r="I44">
+        <v>0.08989021346757346</v>
+      </c>
+      <c r="J44">
+        <v>-0.006112109060293505</v>
+      </c>
+      <c r="K44">
+        <v>0.02024436825740177</v>
+      </c>
+      <c r="L44">
+        <v>0.01585746822051782</v>
+      </c>
+      <c r="M44">
+        <v>-0.117420456676026</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02076330299355988</v>
+        <v>0.03303974283031265</v>
       </c>
       <c r="C46">
-        <v>-0.04692446486827113</v>
+        <v>0.03933527189631794</v>
       </c>
       <c r="D46">
-        <v>0.01619908863176668</v>
+        <v>0.04031039172364717</v>
       </c>
       <c r="E46">
-        <v>0.03654035432715566</v>
+        <v>0.04153287408732412</v>
       </c>
       <c r="F46">
-        <v>0.01073225297700012</v>
+        <v>-0.03555192003307981</v>
       </c>
       <c r="G46">
-        <v>-0.007453227966616293</v>
+        <v>0.01473880206572016</v>
       </c>
       <c r="H46">
-        <v>0.0127070223452771</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.05342913351559288</v>
+      </c>
+      <c r="I46">
+        <v>-0.02406708362570328</v>
+      </c>
+      <c r="J46">
+        <v>0.04281047618106402</v>
+      </c>
+      <c r="K46">
+        <v>0.1021048784481881</v>
+      </c>
+      <c r="L46">
+        <v>-0.01547654222684987</v>
+      </c>
+      <c r="M46">
+        <v>0.01038011363776648</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.0247545949168647</v>
+        <v>0.0431764040409894</v>
       </c>
       <c r="C47">
-        <v>-0.002903908135303756</v>
+        <v>0.02854234859580505</v>
       </c>
       <c r="D47">
-        <v>-0.009896274431456872</v>
+        <v>0.01791617808420348</v>
       </c>
       <c r="E47">
-        <v>0.06821028247233148</v>
+        <v>0.01140127248160549</v>
       </c>
       <c r="F47">
-        <v>0.02204129334197241</v>
+        <v>-0.03921834358481553</v>
       </c>
       <c r="G47">
-        <v>0.002346775802633259</v>
+        <v>-0.01270090746119656</v>
       </c>
       <c r="H47">
-        <v>-0.03608082176886217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.00995734760457029</v>
+      </c>
+      <c r="I47">
+        <v>-0.009732544011954867</v>
+      </c>
+      <c r="J47">
+        <v>0.0324962677779356</v>
+      </c>
+      <c r="K47">
+        <v>0.04364070855728413</v>
+      </c>
+      <c r="L47">
+        <v>-0.009880168069732027</v>
+      </c>
+      <c r="M47">
+        <v>0.04819902303788299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03392210649751514</v>
+        <v>0.04162963442602111</v>
       </c>
       <c r="C48">
-        <v>-0.02317585621891082</v>
+        <v>0.02087927117740774</v>
       </c>
       <c r="D48">
-        <v>0.001279617836229823</v>
+        <v>0.01135635414753456</v>
       </c>
       <c r="E48">
-        <v>0.05438791229650967</v>
+        <v>0.001260558927388671</v>
       </c>
       <c r="F48">
-        <v>0.02464966546508542</v>
+        <v>-0.06994397123628969</v>
       </c>
       <c r="G48">
-        <v>-0.02373963228286902</v>
+        <v>0.04204842277900614</v>
       </c>
       <c r="H48">
-        <v>-0.0003684707478020767</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.004857469371913736</v>
+      </c>
+      <c r="I48">
+        <v>-0.0130327183366754</v>
+      </c>
+      <c r="J48">
+        <v>-0.00116236656168706</v>
+      </c>
+      <c r="K48">
+        <v>0.06705962292070973</v>
+      </c>
+      <c r="L48">
+        <v>-0.0423322519494064</v>
+      </c>
+      <c r="M48">
+        <v>0.01981708925941874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2135716835353049</v>
+        <v>0.224569678703438</v>
       </c>
       <c r="C49">
-        <v>-0.1250715826780553</v>
+        <v>0.07571677860319526</v>
       </c>
       <c r="D49">
-        <v>0.07044637083290113</v>
+        <v>-0.054457311959318</v>
       </c>
       <c r="E49">
-        <v>-0.04573250012619821</v>
+        <v>0.03218798749638992</v>
       </c>
       <c r="F49">
-        <v>-0.1814123976826486</v>
+        <v>0.2488669921197645</v>
       </c>
       <c r="G49">
-        <v>0.03239581556677124</v>
+        <v>0.1249655205267618</v>
       </c>
       <c r="H49">
-        <v>0.05142248814452825</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.04928917300106977</v>
+      </c>
+      <c r="I49">
+        <v>0.151372347589503</v>
+      </c>
+      <c r="J49">
+        <v>0.00997200840426379</v>
+      </c>
+      <c r="K49">
+        <v>-0.1561660206380816</v>
+      </c>
+      <c r="L49">
+        <v>-0.07305334263638359</v>
+      </c>
+      <c r="M49">
+        <v>0.1312707875372856</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05731696159991206</v>
+        <v>0.0461577556515246</v>
       </c>
       <c r="C50">
-        <v>-0.02671894990985715</v>
+        <v>0.04101051781155837</v>
       </c>
       <c r="D50">
-        <v>-0.001637675983033619</v>
+        <v>0.002260082668289017</v>
       </c>
       <c r="E50">
-        <v>0.02827906927767566</v>
+        <v>-0.01106083117850042</v>
       </c>
       <c r="F50">
-        <v>0.04803969425774342</v>
+        <v>-0.05245843752949231</v>
       </c>
       <c r="G50">
-        <v>-0.04142695199765624</v>
+        <v>-0.03496550506806367</v>
       </c>
       <c r="H50">
-        <v>-0.03939047568814541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.01532151914376905</v>
+      </c>
+      <c r="I50">
+        <v>-0.03064222641028221</v>
+      </c>
+      <c r="J50">
+        <v>0.03636937391833443</v>
+      </c>
+      <c r="K50">
+        <v>0.04388594918907112</v>
+      </c>
+      <c r="L50">
+        <v>-0.007774974263575215</v>
+      </c>
+      <c r="M50">
+        <v>-0.02156980756183475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02899726858654867</v>
+        <v>0.02707040479864223</v>
       </c>
       <c r="C51">
-        <v>-0.01567186526250521</v>
+        <v>0.006312256390611271</v>
       </c>
       <c r="D51">
-        <v>-0.003932869437980013</v>
+        <v>-0.001578359521254349</v>
       </c>
       <c r="E51">
-        <v>0.001528811788623559</v>
+        <v>0.01706541472237961</v>
       </c>
       <c r="F51">
-        <v>0.003158876365882495</v>
+        <v>0.02070777746593711</v>
       </c>
       <c r="G51">
-        <v>0.01586880596399586</v>
+        <v>-0.00691621204986918</v>
       </c>
       <c r="H51">
-        <v>0.02477378322153669</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.01210272454140806</v>
+      </c>
+      <c r="I51">
+        <v>0.02013349994141858</v>
+      </c>
+      <c r="J51">
+        <v>-0.03879585085331785</v>
+      </c>
+      <c r="K51">
+        <v>-0.0684822895807838</v>
+      </c>
+      <c r="L51">
+        <v>-0.0415586921772403</v>
+      </c>
+      <c r="M51">
+        <v>-0.002984210172245451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.03233197602409725</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.006754772249011332</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01576616227735851</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.002726419982820354</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02523533333512283</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.04096598640902349</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.006674025274076452</v>
+      </c>
+      <c r="I52">
+        <v>0.006782403918155534</v>
+      </c>
+      <c r="J52">
+        <v>0.006187112178735958</v>
+      </c>
+      <c r="K52">
+        <v>-0.01271121274592966</v>
+      </c>
+      <c r="L52">
+        <v>-0.005271526942944172</v>
+      </c>
+      <c r="M52">
+        <v>-0.05515587026593529</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1714595758311278</v>
+        <v>0.1590837617664522</v>
       </c>
       <c r="C53">
-        <v>-0.004853322645589384</v>
+        <v>0.04488424606393208</v>
       </c>
       <c r="D53">
-        <v>0.01947151774430892</v>
+        <v>-0.01574657183391034</v>
       </c>
       <c r="E53">
-        <v>-0.07979550383771657</v>
+        <v>-0.005154176925922352</v>
       </c>
       <c r="F53">
-        <v>0.2449319218220369</v>
+        <v>0.03986511708006856</v>
       </c>
       <c r="G53">
-        <v>-0.02683269952995281</v>
+        <v>-0.2485092290417321</v>
       </c>
       <c r="H53">
-        <v>-0.07690922783759296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1206626584396835</v>
+      </c>
+      <c r="I53">
+        <v>-0.05565274426965614</v>
+      </c>
+      <c r="J53">
+        <v>0.08503286443043832</v>
+      </c>
+      <c r="K53">
+        <v>-0.04873688750440166</v>
+      </c>
+      <c r="L53">
+        <v>0.03862577770638428</v>
+      </c>
+      <c r="M53">
+        <v>-0.09094071520177029</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.04692329203546009</v>
+        <v>0.05390900408746551</v>
       </c>
       <c r="C54">
-        <v>-0.03582416731541521</v>
+        <v>0.0396912423736901</v>
       </c>
       <c r="D54">
-        <v>0.03197855103878979</v>
+        <v>0.01795217323473132</v>
       </c>
       <c r="E54">
-        <v>0.05188665526525814</v>
+        <v>0.02976804810971901</v>
       </c>
       <c r="F54">
-        <v>0.02012712096464948</v>
+        <v>-0.10777890544275</v>
       </c>
       <c r="G54">
-        <v>-0.004309272515953985</v>
+        <v>0.04550814144122306</v>
       </c>
       <c r="H54">
-        <v>0.0002942988661277748</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.03304221247187128</v>
+      </c>
+      <c r="I54">
+        <v>-0.08155495414964735</v>
+      </c>
+      <c r="J54">
+        <v>-0.001361298013851201</v>
+      </c>
+      <c r="K54">
+        <v>0.1377688705385117</v>
+      </c>
+      <c r="L54">
+        <v>0.01479228089780914</v>
+      </c>
+      <c r="M54">
+        <v>0.03863937204125209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09169788758545983</v>
+        <v>0.08604911679650273</v>
       </c>
       <c r="C55">
-        <v>-0.003589800502017139</v>
+        <v>0.03930442234981558</v>
       </c>
       <c r="D55">
-        <v>0.01850036681924936</v>
+        <v>-0.03182109990339661</v>
       </c>
       <c r="E55">
-        <v>-0.01756209436858476</v>
+        <v>0.007702480732202853</v>
       </c>
       <c r="F55">
-        <v>0.2080419130653678</v>
+        <v>-0.02150430198793318</v>
       </c>
       <c r="G55">
-        <v>-0.03721136128256651</v>
+        <v>-0.1527400739917553</v>
       </c>
       <c r="H55">
-        <v>-0.08684509575850387</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.08935703348777174</v>
+      </c>
+      <c r="I55">
+        <v>-0.0499246315452842</v>
+      </c>
+      <c r="J55">
+        <v>0.04897123541167697</v>
+      </c>
+      <c r="K55">
+        <v>-0.01857510180366191</v>
+      </c>
+      <c r="L55">
+        <v>0.0119223167431129</v>
+      </c>
+      <c r="M55">
+        <v>0.0008981251291392438</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1645555487749659</v>
+        <v>0.1518719699620204</v>
       </c>
       <c r="C56">
-        <v>-0.00866708594304671</v>
+        <v>0.06914463638973252</v>
       </c>
       <c r="D56">
-        <v>0.03371221083822579</v>
+        <v>-0.03446431754059027</v>
       </c>
       <c r="E56">
-        <v>-0.07942199977163554</v>
+        <v>0.01297094366139204</v>
       </c>
       <c r="F56">
-        <v>0.2233242502226086</v>
+        <v>0.01616789169530614</v>
       </c>
       <c r="G56">
-        <v>-0.07538144963925544</v>
+        <v>-0.2332632828216811</v>
       </c>
       <c r="H56">
-        <v>-0.07343654577629814</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.109971797304534</v>
+      </c>
+      <c r="I56">
+        <v>-0.03973043424167205</v>
+      </c>
+      <c r="J56">
+        <v>0.06262760246725799</v>
+      </c>
+      <c r="K56">
+        <v>-0.038822160542128</v>
+      </c>
+      <c r="L56">
+        <v>0.06905492497186447</v>
+      </c>
+      <c r="M56">
+        <v>-0.0418758675321842</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1102 +3040,1747 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02190070108241222</v>
+        <v>0.03615910012934388</v>
       </c>
       <c r="C58">
-        <v>-0.04875638223914569</v>
+        <v>0.03043235889223789</v>
       </c>
       <c r="D58">
-        <v>-0.03741502769038561</v>
+        <v>0.08208176105422833</v>
       </c>
       <c r="E58">
-        <v>0.3816770804659638</v>
+        <v>0.01080478267853462</v>
       </c>
       <c r="F58">
-        <v>-0.3029275045405285</v>
+        <v>-0.05700453679893244</v>
       </c>
       <c r="G58">
-        <v>-0.04985121026096951</v>
+        <v>0.06326210240012385</v>
       </c>
       <c r="H58">
-        <v>-0.3737460501031605</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1192759262543719</v>
+      </c>
+      <c r="I58">
+        <v>-0.0205747115158199</v>
+      </c>
+      <c r="J58">
+        <v>-0.143594041756442</v>
+      </c>
+      <c r="K58">
+        <v>0.06821176526819761</v>
+      </c>
+      <c r="L58">
+        <v>-0.4614772958610689</v>
+      </c>
+      <c r="M58">
+        <v>-0.06483540236365461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2298687489959329</v>
+        <v>0.2260201012557084</v>
       </c>
       <c r="C59">
-        <v>0.405333391214086</v>
+        <v>-0.295301942251823</v>
       </c>
       <c r="D59">
-        <v>0.04381820627044296</v>
+        <v>-0.04483429312617106</v>
       </c>
       <c r="E59">
-        <v>0.009553388067053843</v>
+        <v>0.01260354823616339</v>
       </c>
       <c r="F59">
-        <v>0.05289914619349866</v>
+        <v>-0.02378703002153561</v>
       </c>
       <c r="G59">
-        <v>0.03465093570831791</v>
+        <v>-0.05817179328854478</v>
       </c>
       <c r="H59">
-        <v>0.0609968210266669</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.06389731000374481</v>
+      </c>
+      <c r="I59">
+        <v>-0.01130744960904393</v>
+      </c>
+      <c r="J59">
+        <v>-0.10058355124997</v>
+      </c>
+      <c r="K59">
+        <v>-0.08535611834058808</v>
+      </c>
+      <c r="L59">
+        <v>0.08115354490080037</v>
+      </c>
+      <c r="M59">
+        <v>-0.03510769971946207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2550469136463103</v>
+        <v>0.2400740615736896</v>
       </c>
       <c r="C60">
-        <v>-0.07549458288746698</v>
+        <v>0.1161919052268351</v>
       </c>
       <c r="D60">
-        <v>0.07973892538089368</v>
+        <v>-0.06413584873410394</v>
       </c>
       <c r="E60">
-        <v>0.004235241942014527</v>
+        <v>0.04610577638409449</v>
       </c>
       <c r="F60">
-        <v>-0.05231030066055205</v>
+        <v>0.1114594924466962</v>
       </c>
       <c r="G60">
-        <v>-0.01441386758733262</v>
+        <v>0.02943015244743629</v>
       </c>
       <c r="H60">
-        <v>-0.05643779574137631</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.1248245335822015</v>
+      </c>
+      <c r="I60">
+        <v>-0.04753070443896897</v>
+      </c>
+      <c r="J60">
+        <v>0.1279821169693576</v>
+      </c>
+      <c r="K60">
+        <v>-0.235645765103851</v>
+      </c>
+      <c r="L60">
+        <v>0.008113249186306007</v>
+      </c>
+      <c r="M60">
+        <v>-0.02044985748299956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08269025241180264</v>
+        <v>0.09875219823286742</v>
       </c>
       <c r="C61">
-        <v>-0.05131415980078565</v>
+        <v>0.06971143787622318</v>
       </c>
       <c r="D61">
-        <v>0.01071844318150198</v>
+        <v>-0.0434290975317086</v>
       </c>
       <c r="E61">
-        <v>-0.0003527830684163917</v>
+        <v>0.008777731530392264</v>
       </c>
       <c r="F61">
-        <v>0.02268505675331719</v>
+        <v>-0.1422051699712839</v>
       </c>
       <c r="G61">
-        <v>0.01926660554346614</v>
+        <v>-0.05638132372320111</v>
       </c>
       <c r="H61">
-        <v>0.05915673073386517</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.01371953303116893</v>
+      </c>
+      <c r="I61">
+        <v>0.08094733067110452</v>
+      </c>
+      <c r="J61">
+        <v>-0.06489545490761245</v>
+      </c>
+      <c r="K61">
+        <v>0.035802879313102</v>
+      </c>
+      <c r="L61">
+        <v>-0.05637071739776205</v>
+      </c>
+      <c r="M61">
+        <v>-0.003336144554494145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.160114424681799</v>
+        <v>0.1426335970064577</v>
       </c>
       <c r="C62">
-        <v>-0.04540898211921492</v>
+        <v>0.06929958070652747</v>
       </c>
       <c r="D62">
-        <v>-0.005487352637181563</v>
+        <v>-0.03266532455555657</v>
       </c>
       <c r="E62">
-        <v>-0.1406980264631288</v>
+        <v>-0.03361272358675281</v>
       </c>
       <c r="F62">
-        <v>0.2181070950415374</v>
+        <v>0.02838496175264695</v>
       </c>
       <c r="G62">
-        <v>-0.005833833638376121</v>
+        <v>-0.1767109319692701</v>
       </c>
       <c r="H62">
-        <v>-0.02125230479869246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1350508581134856</v>
+      </c>
+      <c r="I62">
+        <v>-0.03621212909921712</v>
+      </c>
+      <c r="J62">
+        <v>0.1057848053177687</v>
+      </c>
+      <c r="K62">
+        <v>0.009280034751755373</v>
+      </c>
+      <c r="L62">
+        <v>0.08399357098593732</v>
+      </c>
+      <c r="M62">
+        <v>0.01848418767894681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03878052411715085</v>
+        <v>0.04619816291691826</v>
       </c>
       <c r="C63">
-        <v>-0.04038881424154072</v>
+        <v>0.03202498690183593</v>
       </c>
       <c r="D63">
-        <v>0.005713938727166433</v>
+        <v>-0.005414915370520848</v>
       </c>
       <c r="E63">
-        <v>0.000669185168917014</v>
+        <v>-0.01154088891075514</v>
       </c>
       <c r="F63">
-        <v>0.02017520370676595</v>
+        <v>-0.0702694724437586</v>
       </c>
       <c r="G63">
-        <v>0.01204178281401273</v>
+        <v>0.007271047717956924</v>
       </c>
       <c r="H63">
-        <v>-0.04890288701407609</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.002916577367703477</v>
+      </c>
+      <c r="I63">
+        <v>-0.006539669518947952</v>
+      </c>
+      <c r="J63">
+        <v>0.009752770111704631</v>
+      </c>
+      <c r="K63">
+        <v>0.05170034032150506</v>
+      </c>
+      <c r="L63">
+        <v>-0.03854750200867586</v>
+      </c>
+      <c r="M63">
+        <v>0.02749459218177408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.1038323832615799</v>
+        <v>0.09881300356292162</v>
       </c>
       <c r="C64">
-        <v>-0.02790962429146907</v>
+        <v>0.04583257075288782</v>
       </c>
       <c r="D64">
-        <v>0.03492113399078725</v>
+        <v>0.008439237286258006</v>
       </c>
       <c r="E64">
-        <v>0.04432794096791044</v>
+        <v>0.03946889609229474</v>
       </c>
       <c r="F64">
-        <v>-0.008044263063445569</v>
+        <v>-0.06813424209826741</v>
       </c>
       <c r="G64">
-        <v>0.04801687559643991</v>
+        <v>0.01253317326769578</v>
       </c>
       <c r="H64">
-        <v>0.05287889706718693</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.07869537496794571</v>
+      </c>
+      <c r="I64">
+        <v>0.0305711561350759</v>
+      </c>
+      <c r="J64">
+        <v>-0.000907515787540336</v>
+      </c>
+      <c r="K64">
+        <v>0.02108553403940951</v>
+      </c>
+      <c r="L64">
+        <v>-0.00232150681236131</v>
+      </c>
+      <c r="M64">
+        <v>-0.01854662553212069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.126603319151685</v>
+        <v>0.1223414000151804</v>
       </c>
       <c r="C65">
-        <v>-0.0537570908838291</v>
+        <v>0.04252547743140273</v>
       </c>
       <c r="D65">
-        <v>0.02707451711070499</v>
+        <v>-0.01319227710356747</v>
       </c>
       <c r="E65">
-        <v>0.08982907342385187</v>
+        <v>-0.02867539638693525</v>
       </c>
       <c r="F65">
-        <v>-0.1516309673053295</v>
+        <v>0.005662711821845363</v>
       </c>
       <c r="G65">
-        <v>0.000238093803251835</v>
+        <v>0.1472793835000569</v>
       </c>
       <c r="H65">
-        <v>-0.5951824408526386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.2975144599711073</v>
+      </c>
+      <c r="I65">
+        <v>-0.4502831394410509</v>
+      </c>
+      <c r="J65">
+        <v>0.4270805847330781</v>
+      </c>
+      <c r="K65">
+        <v>-0.01929972798381078</v>
+      </c>
+      <c r="L65">
+        <v>-0.1018525956232099</v>
+      </c>
+      <c r="M65">
+        <v>-0.07478001155861301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.158848604205982</v>
+        <v>0.1342521218792055</v>
       </c>
       <c r="C66">
-        <v>-0.1259791742171559</v>
+        <v>0.1309504978093364</v>
       </c>
       <c r="D66">
-        <v>0.014420698690154</v>
+        <v>-0.09699783913258829</v>
       </c>
       <c r="E66">
-        <v>-0.005628062925220545</v>
+        <v>-0.04706291608990198</v>
       </c>
       <c r="F66">
-        <v>0.05163851897500895</v>
+        <v>-0.182870294269483</v>
       </c>
       <c r="G66">
-        <v>0.1755744101114534</v>
+        <v>-0.06731339359907408</v>
       </c>
       <c r="H66">
-        <v>0.2103839328449782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.07560483213547246</v>
+      </c>
+      <c r="I66">
+        <v>0.2136058218139914</v>
+      </c>
+      <c r="J66">
+        <v>-0.1205306349558816</v>
+      </c>
+      <c r="K66">
+        <v>-0.05800984592535424</v>
+      </c>
+      <c r="L66">
+        <v>-0.08266954366925643</v>
+      </c>
+      <c r="M66">
+        <v>-0.1263488129106169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.08148416677117985</v>
+        <v>0.07542750130644803</v>
       </c>
       <c r="C67">
-        <v>-0.04918619956816746</v>
+        <v>0.05990935348888375</v>
       </c>
       <c r="D67">
-        <v>0.008391525367289779</v>
+        <v>0.02057949762665774</v>
       </c>
       <c r="E67">
-        <v>0.007865502875339752</v>
+        <v>0.02157788506012983</v>
       </c>
       <c r="F67">
-        <v>0.02581015425608751</v>
+        <v>0.06019190583253945</v>
       </c>
       <c r="G67">
-        <v>0.0004674622840621895</v>
+        <v>-0.08498660809151504</v>
       </c>
       <c r="H67">
-        <v>0.06868110323692411</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.03378209192439697</v>
+      </c>
+      <c r="I67">
+        <v>0.06855021971191792</v>
+      </c>
+      <c r="J67">
+        <v>0.006721675334664362</v>
+      </c>
+      <c r="K67">
+        <v>-0.005009544491430821</v>
+      </c>
+      <c r="L67">
+        <v>0.1396855410571393</v>
+      </c>
+      <c r="M67">
+        <v>-0.03815340826846121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.09331814333616803</v>
+        <v>0.124863656958918</v>
       </c>
       <c r="C68">
-        <v>0.2835543632475271</v>
+        <v>-0.2736292159700451</v>
       </c>
       <c r="D68">
-        <v>0.002482236838503318</v>
+        <v>-0.008192336896496972</v>
       </c>
       <c r="E68">
-        <v>0.0215839852381775</v>
+        <v>0.002913402127211008</v>
       </c>
       <c r="F68">
-        <v>0.02476396883205977</v>
+        <v>-0.03687974899805824</v>
       </c>
       <c r="G68">
-        <v>-0.03581979776326957</v>
+        <v>-0.02473471366627361</v>
       </c>
       <c r="H68">
-        <v>-0.02513098491933889</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.01692749009216228</v>
+      </c>
+      <c r="I68">
+        <v>-0.04192533020175158</v>
+      </c>
+      <c r="J68">
+        <v>0.03457856875855236</v>
+      </c>
+      <c r="K68">
+        <v>0.02302495176596674</v>
+      </c>
+      <c r="L68">
+        <v>-0.03099042547819302</v>
+      </c>
+      <c r="M68">
+        <v>-0.02197940224754799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03397696769507071</v>
+        <v>0.04331274034213288</v>
       </c>
       <c r="C69">
-        <v>-0.02540555790108475</v>
+        <v>0.02201959625093071</v>
       </c>
       <c r="D69">
-        <v>0.007862513690119999</v>
+        <v>0.00660213135149468</v>
       </c>
       <c r="E69">
-        <v>0.01089314661004857</v>
+        <v>0.0009395280926655607</v>
       </c>
       <c r="F69">
-        <v>0.02716973577933008</v>
+        <v>-0.02025540513295569</v>
       </c>
       <c r="G69">
-        <v>0.03415185787553533</v>
+        <v>-0.021724479638785</v>
       </c>
       <c r="H69">
-        <v>-0.002547004902113796</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.00709642482651176</v>
+      </c>
+      <c r="I69">
+        <v>0.01397328996283625</v>
+      </c>
+      <c r="J69">
+        <v>0.004650371546053853</v>
+      </c>
+      <c r="K69">
+        <v>0.020190053266762</v>
+      </c>
+      <c r="L69">
+        <v>0.004398499829674044</v>
+      </c>
+      <c r="M69">
+        <v>0.07477705315029683</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.05352285992373186</v>
+        <v>0.05547257261134426</v>
       </c>
       <c r="C70">
-        <v>0.002825689187139334</v>
+        <v>0.03835759540887056</v>
       </c>
       <c r="D70">
-        <v>0.04182044355673482</v>
+        <v>-0.02001015439330828</v>
       </c>
       <c r="E70">
-        <v>-9.318646280205048e-05</v>
+        <v>0.0223205098533704</v>
       </c>
       <c r="F70">
-        <v>-0.0915807927012047</v>
+        <v>0.007745891401006012</v>
       </c>
       <c r="G70">
-        <v>-0.04818234808499745</v>
+        <v>0.06528267543836408</v>
       </c>
       <c r="H70">
-        <v>0.05419356148993332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.01034012303028216</v>
+      </c>
+      <c r="I70">
+        <v>-0.03374776824993599</v>
+      </c>
+      <c r="J70">
+        <v>0.04751722627873312</v>
+      </c>
+      <c r="K70">
+        <v>0.2396053684531292</v>
+      </c>
+      <c r="L70">
+        <v>0.1633684088536155</v>
+      </c>
+      <c r="M70">
+        <v>0.026482641299025</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.1004400979046797</v>
+        <v>0.1390569507159863</v>
       </c>
       <c r="C71">
-        <v>0.2793820563838719</v>
+        <v>-0.2813446985697216</v>
       </c>
       <c r="D71">
-        <v>0.03719868886654332</v>
+        <v>-0.01228587052721514</v>
       </c>
       <c r="E71">
-        <v>0.01225982399605087</v>
+        <v>0.01989734594742307</v>
       </c>
       <c r="F71">
-        <v>-0.003802325095039678</v>
+        <v>-0.03652130032659664</v>
       </c>
       <c r="G71">
-        <v>-0.01164257071950213</v>
+        <v>-0.02352629899072166</v>
       </c>
       <c r="H71">
-        <v>0.001511906630885127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.0261774121869152</v>
+      </c>
+      <c r="I71">
+        <v>0.0005648286580407116</v>
+      </c>
+      <c r="J71">
+        <v>0.01686991096727556</v>
+      </c>
+      <c r="K71">
+        <v>0.0117271682385189</v>
+      </c>
+      <c r="L71">
+        <v>-0.02269607315813089</v>
+      </c>
+      <c r="M71">
+        <v>-0.003940690591526456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1802437462181646</v>
+        <v>0.1465449035141209</v>
       </c>
       <c r="C72">
-        <v>-0.02594017717022092</v>
+        <v>0.02767561147755555</v>
       </c>
       <c r="D72">
-        <v>-0.2511564342991284</v>
+        <v>0.002748163379498965</v>
       </c>
       <c r="E72">
-        <v>-0.05147702461844652</v>
+        <v>-0.1868044672088537</v>
       </c>
       <c r="F72">
-        <v>0.05364881047329042</v>
+        <v>-0.0370436679997474</v>
       </c>
       <c r="G72">
-        <v>0.07106319767067346</v>
+        <v>-0.03718590240596725</v>
       </c>
       <c r="H72">
-        <v>-0.07698071676776316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.02908200136412207</v>
+      </c>
+      <c r="I72">
+        <v>-0.07332871582713471</v>
+      </c>
+      <c r="J72">
+        <v>0.1191990244362553</v>
+      </c>
+      <c r="K72">
+        <v>-0.1064330825081484</v>
+      </c>
+      <c r="L72">
+        <v>0.05119222627908093</v>
+      </c>
+      <c r="M72">
+        <v>-0.009192918373777729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2814224070308652</v>
+        <v>0.2387449386598644</v>
       </c>
       <c r="C73">
-        <v>-0.181927267693624</v>
+        <v>0.1518201324244556</v>
       </c>
       <c r="D73">
-        <v>0.1070257462172787</v>
+        <v>-0.1413888100480619</v>
       </c>
       <c r="E73">
-        <v>-0.03893079029130274</v>
+        <v>0.09678091258605881</v>
       </c>
       <c r="F73">
-        <v>-0.2080666174851855</v>
+        <v>0.4439995664052731</v>
       </c>
       <c r="G73">
-        <v>0.007159095649681026</v>
+        <v>0.07917060861395654</v>
       </c>
       <c r="H73">
-        <v>-0.143770795065917</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.2377559435873514</v>
+      </c>
+      <c r="I73">
+        <v>0.2915980626565924</v>
+      </c>
+      <c r="J73">
+        <v>-0.02938841364235181</v>
+      </c>
+      <c r="K73">
+        <v>-0.2858524063792895</v>
+      </c>
+      <c r="L73">
+        <v>-0.1797985279925203</v>
+      </c>
+      <c r="M73">
+        <v>-0.1151279731141802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09287922881717448</v>
+        <v>0.09588365971878426</v>
       </c>
       <c r="C74">
-        <v>-0.03808819410687053</v>
+        <v>0.07046267102280468</v>
       </c>
       <c r="D74">
-        <v>0.008302013971839425</v>
+        <v>-0.01107049135228664</v>
       </c>
       <c r="E74">
-        <v>-0.02193324139518874</v>
+        <v>-0.01084564935934198</v>
       </c>
       <c r="F74">
-        <v>0.1239185540198993</v>
+        <v>0.01967126457857729</v>
       </c>
       <c r="G74">
-        <v>-0.04515547048897853</v>
+        <v>-0.1552011549410873</v>
       </c>
       <c r="H74">
-        <v>-0.0791426139133925</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.02928192307242706</v>
+      </c>
+      <c r="I74">
+        <v>0.02050771110442295</v>
+      </c>
+      <c r="J74">
+        <v>0.04996221840938336</v>
+      </c>
+      <c r="K74">
+        <v>-0.008069763652042728</v>
+      </c>
+      <c r="L74">
+        <v>-0.006973096059925586</v>
+      </c>
+      <c r="M74">
+        <v>-0.01088391558689659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09080835925032342</v>
+        <v>0.09410205291931943</v>
       </c>
       <c r="C75">
-        <v>-0.01807207622397339</v>
+        <v>0.05157114173656936</v>
       </c>
       <c r="D75">
-        <v>0.009639157988601859</v>
+        <v>-0.008310301339167735</v>
       </c>
       <c r="E75">
-        <v>-0.04294293012599598</v>
+        <v>-0.01090242786132142</v>
       </c>
       <c r="F75">
-        <v>0.1078245213018109</v>
+        <v>0.01457648619033436</v>
       </c>
       <c r="G75">
-        <v>-0.05788057016761491</v>
+        <v>-0.1067705635451811</v>
       </c>
       <c r="H75">
-        <v>-0.02663362757771143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.07276783663360774</v>
+      </c>
+      <c r="I75">
+        <v>-0.04476003031810274</v>
+      </c>
+      <c r="J75">
+        <v>0.01129915149233734</v>
+      </c>
+      <c r="K75">
+        <v>-0.01422860291395347</v>
+      </c>
+      <c r="L75">
+        <v>0.02339037664642049</v>
+      </c>
+      <c r="M75">
+        <v>0.07004726225411197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1349457635770582</v>
+        <v>0.08241084154057002</v>
       </c>
       <c r="C76">
-        <v>-0.02392830678338814</v>
+        <v>0.06215997638357918</v>
       </c>
       <c r="D76">
-        <v>0.01436332998721977</v>
+        <v>-0.005522824416706811</v>
       </c>
       <c r="E76">
-        <v>-0.02221181274658218</v>
+        <v>0.01036053780540537</v>
       </c>
       <c r="F76">
-        <v>0.2299308441180199</v>
+        <v>0.04675066123466259</v>
       </c>
       <c r="G76">
-        <v>-0.0731959887647524</v>
+        <v>-0.1886847764802901</v>
       </c>
       <c r="H76">
-        <v>-0.09396236732802515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1124423171165327</v>
+      </c>
+      <c r="I76">
+        <v>-0.06061074965177903</v>
+      </c>
+      <c r="J76">
+        <v>0.02169702578344726</v>
+      </c>
+      <c r="K76">
+        <v>-0.01085074371151942</v>
+      </c>
+      <c r="L76">
+        <v>0.01653474278490785</v>
+      </c>
+      <c r="M76">
+        <v>-0.0563014131827976</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.06866700262577775</v>
+        <v>0.07114058063408621</v>
       </c>
       <c r="C77">
-        <v>-0.02367126982480547</v>
+        <v>0.0246269375906933</v>
       </c>
       <c r="D77">
-        <v>0.01418799358704276</v>
+        <v>-0.01965762510572107</v>
       </c>
       <c r="E77">
-        <v>0.1527623018650008</v>
+        <v>0.04500777546828143</v>
       </c>
       <c r="F77">
-        <v>-0.07957531654847029</v>
+        <v>-0.2656469696616651</v>
       </c>
       <c r="G77">
-        <v>0.6831337231449306</v>
+        <v>0.1397782398154616</v>
       </c>
       <c r="H77">
-        <v>0.1483449426562248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.3522381155982947</v>
+      </c>
+      <c r="I77">
+        <v>0.07331882627571336</v>
+      </c>
+      <c r="J77">
+        <v>-0.1548284712785471</v>
+      </c>
+      <c r="K77">
+        <v>-0.2442872956788217</v>
+      </c>
+      <c r="L77">
+        <v>0.6289360663274183</v>
+      </c>
+      <c r="M77">
+        <v>0.01275088332768075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1495484976559404</v>
+        <v>0.160265016292916</v>
       </c>
       <c r="C78">
-        <v>-0.09053539946497387</v>
+        <v>0.129148272486861</v>
       </c>
       <c r="D78">
-        <v>0.02734780640505014</v>
+        <v>0.1794853810907769</v>
       </c>
       <c r="E78">
-        <v>0.2009668044045952</v>
+        <v>0.1107748134602904</v>
       </c>
       <c r="F78">
-        <v>-0.004636748938280906</v>
+        <v>-0.1177128127212649</v>
       </c>
       <c r="G78">
-        <v>0.02568672949169856</v>
+        <v>0.2901996453117491</v>
       </c>
       <c r="H78">
-        <v>0.08206107838626951</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.3657486288910878</v>
+      </c>
+      <c r="I78">
+        <v>-0.4444490755342181</v>
+      </c>
+      <c r="J78">
+        <v>-0.409845028708994</v>
+      </c>
+      <c r="K78">
+        <v>-0.4065556581383438</v>
+      </c>
+      <c r="L78">
+        <v>-0.05235591634431114</v>
+      </c>
+      <c r="M78">
+        <v>-0.1211846548663657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.141783463566882</v>
+        <v>0.1349369968946232</v>
       </c>
       <c r="C79">
-        <v>-0.04811931673011129</v>
+        <v>0.07582273386179045</v>
       </c>
       <c r="D79">
-        <v>0.0192157588627</v>
+        <v>-0.004532763184095566</v>
       </c>
       <c r="E79">
-        <v>-0.05475345845168182</v>
+        <v>0.00297811094968251</v>
       </c>
       <c r="F79">
-        <v>0.1585257094150109</v>
+        <v>-0.01180298986842319</v>
       </c>
       <c r="G79">
-        <v>-0.04610062190828892</v>
+        <v>-0.167891829767346</v>
       </c>
       <c r="H79">
-        <v>-0.0266152536035721</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.08211915233917565</v>
+      </c>
+      <c r="I79">
+        <v>-0.02550415200169978</v>
+      </c>
+      <c r="J79">
+        <v>0.07372117197106863</v>
+      </c>
+      <c r="K79">
+        <v>-0.007568213010587597</v>
+      </c>
+      <c r="L79">
+        <v>0.04892078427248929</v>
+      </c>
+      <c r="M79">
+        <v>0.02689022418507149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.02595920618898329</v>
+        <v>0.05614456734529442</v>
       </c>
       <c r="C80">
-        <v>-0.001024620421989104</v>
+        <v>0.02545001447210627</v>
       </c>
       <c r="D80">
-        <v>0.0044673584143463</v>
+        <v>-0.06845689833719719</v>
       </c>
       <c r="E80">
-        <v>-0.04341694046715733</v>
+        <v>0.01230393783403188</v>
       </c>
       <c r="F80">
-        <v>0.005559457400285215</v>
+        <v>-0.02665268907359978</v>
       </c>
       <c r="G80">
-        <v>0.01510288154193292</v>
+        <v>0.02708782089195484</v>
       </c>
       <c r="H80">
-        <v>-0.04971419888805162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.008629322401085411</v>
+      </c>
+      <c r="I80">
+        <v>-0.05299513478256897</v>
+      </c>
+      <c r="J80">
+        <v>0.02794727961761423</v>
+      </c>
+      <c r="K80">
+        <v>0.1106191645857268</v>
+      </c>
+      <c r="L80">
+        <v>-0.1481020197025976</v>
+      </c>
+      <c r="M80">
+        <v>-0.01039520697825072</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1079452681560658</v>
+        <v>0.1191681701932295</v>
       </c>
       <c r="C81">
-        <v>-0.04054370057604681</v>
+        <v>0.06291060872019788</v>
       </c>
       <c r="D81">
-        <v>0.02565106499102722</v>
+        <v>-0.003721478116295472</v>
       </c>
       <c r="E81">
-        <v>-0.06725054027562019</v>
+        <v>0.005648674393992783</v>
       </c>
       <c r="F81">
-        <v>0.1173441756223516</v>
+        <v>-0.02588632137907171</v>
       </c>
       <c r="G81">
-        <v>-0.02765977911613457</v>
+        <v>-0.1244497227562142</v>
       </c>
       <c r="H81">
-        <v>-0.007422805268173078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.09038282640802806</v>
+      </c>
+      <c r="I81">
+        <v>-0.002825899292277121</v>
+      </c>
+      <c r="J81">
+        <v>0.01822864620529508</v>
+      </c>
+      <c r="K81">
+        <v>0.01123658959422319</v>
+      </c>
+      <c r="L81">
+        <v>0.02763168587094342</v>
+      </c>
+      <c r="M81">
+        <v>0.1256289700764752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1125430630446608</v>
+        <v>0.1228365759008163</v>
       </c>
       <c r="C82">
-        <v>-0.02527726023078241</v>
+        <v>0.05264086182764265</v>
       </c>
       <c r="D82">
-        <v>0.06457886196474176</v>
+        <v>-0.02809761802802024</v>
       </c>
       <c r="E82">
-        <v>-0.08352005225590416</v>
+        <v>0.001291602241923683</v>
       </c>
       <c r="F82">
-        <v>0.2364857679008315</v>
+        <v>0.005426471301054898</v>
       </c>
       <c r="G82">
-        <v>-0.06270938227121979</v>
+        <v>-0.2365247497458102</v>
       </c>
       <c r="H82">
-        <v>-0.02609855491537735</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.143001508322026</v>
+      </c>
+      <c r="I82">
+        <v>0.02914145065671805</v>
+      </c>
+      <c r="J82">
+        <v>0.01931643202553885</v>
+      </c>
+      <c r="K82">
+        <v>0.0658774312662162</v>
+      </c>
+      <c r="L82">
+        <v>0.03853339718173395</v>
+      </c>
+      <c r="M82">
+        <v>0.0334452836621766</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.0618804557709974</v>
+        <v>0.07352638388979327</v>
       </c>
       <c r="C83">
-        <v>-0.04466964917437605</v>
+        <v>0.06969625301523641</v>
       </c>
       <c r="D83">
-        <v>0.02627778226605194</v>
+        <v>-0.02154771454074147</v>
       </c>
       <c r="E83">
-        <v>0.0007269957396071855</v>
+        <v>0.005010053536230275</v>
       </c>
       <c r="F83">
-        <v>-0.05321251741328838</v>
+        <v>-0.01423142815163726</v>
       </c>
       <c r="G83">
-        <v>0.01419177017772413</v>
+        <v>-0.03953557509189653</v>
       </c>
       <c r="H83">
-        <v>0.09961762140579961</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.06782920589241169</v>
+      </c>
+      <c r="I83">
+        <v>0.009325026630015384</v>
+      </c>
+      <c r="J83">
+        <v>-0.03552672414341977</v>
+      </c>
+      <c r="K83">
+        <v>0.09522142158042415</v>
+      </c>
+      <c r="L83">
+        <v>0.01010631645422246</v>
+      </c>
+      <c r="M83">
+        <v>-0.06639203985846201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05109783521454098</v>
+        <v>0.05416357047863786</v>
       </c>
       <c r="C84">
-        <v>-0.0477599106460987</v>
+        <v>-0.01658454989825824</v>
       </c>
       <c r="D84">
-        <v>-0.06128061304376373</v>
+        <v>-0.001403922266804423</v>
       </c>
       <c r="E84">
-        <v>0.004037482736825921</v>
+        <v>-0.01654505306500718</v>
       </c>
       <c r="F84">
-        <v>0.03221742121698353</v>
+        <v>-0.02346468293877924</v>
       </c>
       <c r="G84">
-        <v>-0.1447516061763892</v>
+        <v>0.2035715868020178</v>
       </c>
       <c r="H84">
-        <v>0.01604397494675153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.166343732717594</v>
+      </c>
+      <c r="I84">
+        <v>0.1736495642139425</v>
+      </c>
+      <c r="J84">
+        <v>0.02722388093623497</v>
+      </c>
+      <c r="K84">
+        <v>0.1382025668324948</v>
+      </c>
+      <c r="L84">
+        <v>-0.1019073171712102</v>
+      </c>
+      <c r="M84">
+        <v>-0.5402860772963175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.08976999399814348</v>
+        <v>0.1108095677923083</v>
       </c>
       <c r="C85">
-        <v>-0.03924713546155051</v>
+        <v>0.05010971628491232</v>
       </c>
       <c r="D85">
-        <v>0.05687695477744996</v>
+        <v>-0.01345603244237398</v>
       </c>
       <c r="E85">
-        <v>-0.03328166218493087</v>
+        <v>0.03217514781390378</v>
       </c>
       <c r="F85">
-        <v>0.1880473733832187</v>
+        <v>-0.01533796628507175</v>
       </c>
       <c r="G85">
-        <v>-0.006451401074920627</v>
+        <v>-0.1735283098372878</v>
       </c>
       <c r="H85">
-        <v>-0.06411970732813523</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.08224274787480892</v>
+      </c>
+      <c r="I85">
+        <v>-0.02222621663674958</v>
+      </c>
+      <c r="J85">
+        <v>0.07444164887523895</v>
+      </c>
+      <c r="K85">
+        <v>-0.02699226053937943</v>
+      </c>
+      <c r="L85">
+        <v>0.04799108246091236</v>
+      </c>
+      <c r="M85">
+        <v>0.05083531847831742</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04683541358988103</v>
+        <v>0.07572592903651915</v>
       </c>
       <c r="C86">
-        <v>-0.04401026489792626</v>
+        <v>0.02558514162016546</v>
       </c>
       <c r="D86">
-        <v>0.03396815304846312</v>
+        <v>0.01993309652563717</v>
       </c>
       <c r="E86">
-        <v>0.04379811117860788</v>
+        <v>0.1224934276660247</v>
       </c>
       <c r="F86">
-        <v>-0.005680625838616131</v>
+        <v>-0.04754360948516217</v>
       </c>
       <c r="G86">
-        <v>0.07705310971153931</v>
+        <v>0.428353556338379</v>
       </c>
       <c r="H86">
-        <v>-0.07946554275360955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.4728440987884717</v>
+      </c>
+      <c r="I86">
+        <v>0.3195560695799294</v>
+      </c>
+      <c r="J86">
+        <v>0.4836821430458732</v>
+      </c>
+      <c r="K86">
+        <v>-0.08860307394014727</v>
+      </c>
+      <c r="L86">
+        <v>0.1119174344456283</v>
+      </c>
+      <c r="M86">
+        <v>0.01507731614261282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09091185727750375</v>
+        <v>0.1108747152282539</v>
       </c>
       <c r="C87">
-        <v>-0.05577095432831287</v>
+        <v>0.06890141585254407</v>
       </c>
       <c r="D87">
-        <v>-0.003001582714018385</v>
+        <v>0.02836177364557463</v>
       </c>
       <c r="E87">
-        <v>0.06834174318433282</v>
+        <v>0.03055289070605927</v>
       </c>
       <c r="F87">
-        <v>-0.0005353201661260544</v>
+        <v>-0.1027732428660596</v>
       </c>
       <c r="G87">
-        <v>0.1318280174516223</v>
+        <v>0.08461535772893648</v>
       </c>
       <c r="H87">
-        <v>0.07732969368217527</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1078584566656306</v>
+      </c>
+      <c r="I87">
+        <v>0.05187503166581819</v>
+      </c>
+      <c r="J87">
+        <v>-0.05476860527362917</v>
+      </c>
+      <c r="K87">
+        <v>0.0936764849885003</v>
+      </c>
+      <c r="L87">
+        <v>0.1612345685377634</v>
+      </c>
+      <c r="M87">
+        <v>0.03892501228971659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05737639895151332</v>
+        <v>0.05718359256046376</v>
       </c>
       <c r="C88">
-        <v>-0.04238065677459404</v>
+        <v>0.05283563969119279</v>
       </c>
       <c r="D88">
-        <v>0.02456531473029492</v>
+        <v>-0.02889639194806</v>
       </c>
       <c r="E88">
-        <v>0.01182465084889059</v>
+        <v>0.004843009855580506</v>
       </c>
       <c r="F88">
-        <v>-0.008943159203315018</v>
+        <v>-0.03644970759924423</v>
       </c>
       <c r="G88">
-        <v>0.03105462531974635</v>
+        <v>-0.02243575222717617</v>
       </c>
       <c r="H88">
-        <v>0.02756178691448623</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.01531454179239471</v>
+      </c>
+      <c r="I88">
+        <v>0.01698292992863787</v>
+      </c>
+      <c r="J88">
+        <v>-0.007311580645978965</v>
+      </c>
+      <c r="K88">
+        <v>0.03658532539737835</v>
+      </c>
+      <c r="L88">
+        <v>-0.05833516901133251</v>
+      </c>
+      <c r="M88">
+        <v>0.06045437348460201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1578936151436829</v>
+        <v>0.2096958254348192</v>
       </c>
       <c r="C89">
-        <v>0.3313402696009086</v>
+        <v>-0.3579515614192375</v>
       </c>
       <c r="D89">
-        <v>0.06795042015701545</v>
+        <v>0.04485367328779533</v>
       </c>
       <c r="E89">
-        <v>0.09390220008189558</v>
+        <v>0.08192510892586331</v>
       </c>
       <c r="F89">
-        <v>-0.05158880796078865</v>
+        <v>-0.005952190976662866</v>
       </c>
       <c r="G89">
-        <v>0.03243586043973243</v>
+        <v>0.02920368162831215</v>
       </c>
       <c r="H89">
-        <v>-0.007562419596341016</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.003397983310984202</v>
+      </c>
+      <c r="I89">
+        <v>0.02391545220826902</v>
+      </c>
+      <c r="J89">
+        <v>-0.07738784380232401</v>
+      </c>
+      <c r="K89">
+        <v>0.02548367323972336</v>
+      </c>
+      <c r="L89">
+        <v>-0.05015418179638038</v>
+      </c>
+      <c r="M89">
+        <v>0.08976628238313633</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1220036400252313</v>
+        <v>0.1527127416069069</v>
       </c>
       <c r="C90">
-        <v>0.2814144743665595</v>
+        <v>-0.269802552075284</v>
       </c>
       <c r="D90">
-        <v>0.003486293967296405</v>
+        <v>-0.007664026325715227</v>
       </c>
       <c r="E90">
-        <v>0.06397600077702027</v>
+        <v>0.01403033597830256</v>
       </c>
       <c r="F90">
-        <v>-0.03468393582237789</v>
+        <v>-0.03741015865766099</v>
       </c>
       <c r="G90">
-        <v>0.100648584487761</v>
+        <v>0.01525689042424208</v>
       </c>
       <c r="H90">
-        <v>0.03371910625227709</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.05444277851433595</v>
+      </c>
+      <c r="I90">
+        <v>0.03953494391250487</v>
+      </c>
+      <c r="J90">
+        <v>0.004795719875538163</v>
+      </c>
+      <c r="K90">
+        <v>-0.02181412008788686</v>
+      </c>
+      <c r="L90">
+        <v>-0.0221578731178551</v>
+      </c>
+      <c r="M90">
+        <v>-0.05819493069202882</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.07981918325895852</v>
+        <v>0.07851421385901172</v>
       </c>
       <c r="C91">
-        <v>-0.02043033526675827</v>
+        <v>0.05263371628477662</v>
       </c>
       <c r="D91">
-        <v>0.01553800793922455</v>
+        <v>0.003182430403971576</v>
       </c>
       <c r="E91">
-        <v>0.004704973398331781</v>
+        <v>0.01089573669443517</v>
       </c>
       <c r="F91">
-        <v>0.09786576565132746</v>
+        <v>0.006638951357748584</v>
       </c>
       <c r="G91">
-        <v>-0.0673226577425208</v>
+        <v>-0.09407483561344647</v>
       </c>
       <c r="H91">
-        <v>-0.03188474835439555</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.06835172704410028</v>
+      </c>
+      <c r="I91">
+        <v>-0.009423421379386052</v>
+      </c>
+      <c r="J91">
+        <v>0.002255405452200284</v>
+      </c>
+      <c r="K91">
+        <v>-0.02111422412719503</v>
+      </c>
+      <c r="L91">
+        <v>-0.004958276821815238</v>
+      </c>
+      <c r="M91">
+        <v>-0.007087044632933115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1338059031657915</v>
+        <v>0.1722146412245585</v>
       </c>
       <c r="C92">
-        <v>0.3092145365939831</v>
+        <v>-0.3040532185037223</v>
       </c>
       <c r="D92">
-        <v>0.04956373249993015</v>
+        <v>0.03380523388220997</v>
       </c>
       <c r="E92">
-        <v>0.05158357573885011</v>
+        <v>0.04671013815799359</v>
       </c>
       <c r="F92">
-        <v>-0.04332034157359038</v>
+        <v>-0.04115207480172776</v>
       </c>
       <c r="G92">
-        <v>-0.08780016065656361</v>
+        <v>-0.0225864287523224</v>
       </c>
       <c r="H92">
-        <v>-0.01533243490600838</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.01950701744889834</v>
+      </c>
+      <c r="I92">
+        <v>0.001685398779466581</v>
+      </c>
+      <c r="J92">
+        <v>-0.02857081536962228</v>
+      </c>
+      <c r="K92">
+        <v>0.01550262094871765</v>
+      </c>
+      <c r="L92">
+        <v>-0.05959849165811146</v>
+      </c>
+      <c r="M92">
+        <v>0.06612978208728017</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1330238931230785</v>
+        <v>0.1650443507428317</v>
       </c>
       <c r="C93">
-        <v>0.2598622440797025</v>
+        <v>-0.2862145381611849</v>
       </c>
       <c r="D93">
-        <v>0.02993663486693492</v>
+        <v>-0.02942751005846561</v>
       </c>
       <c r="E93">
-        <v>0.02373950362992992</v>
+        <v>0.007187676877288432</v>
       </c>
       <c r="F93">
-        <v>-0.0318904818777143</v>
+        <v>-0.01376857206263384</v>
       </c>
       <c r="G93">
-        <v>0.02073524577614937</v>
+        <v>0.01708652335843992</v>
       </c>
       <c r="H93">
-        <v>0.01273743713361284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.01105132647564784</v>
+      </c>
+      <c r="I93">
+        <v>0.01727749929226942</v>
+      </c>
+      <c r="J93">
+        <v>0.02912100904170654</v>
+      </c>
+      <c r="K93">
+        <v>0.03342327528497761</v>
+      </c>
+      <c r="L93">
+        <v>-0.01022016433215277</v>
+      </c>
+      <c r="M93">
+        <v>-0.0371219890252688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09126151602387898</v>
+        <v>0.1129799887857078</v>
       </c>
       <c r="C94">
-        <v>-0.05319290993582745</v>
+        <v>0.07372516142379541</v>
       </c>
       <c r="D94">
-        <v>0.009972363350978418</v>
+        <v>0.01674315555325302</v>
       </c>
       <c r="E94">
-        <v>-0.002766883487615768</v>
+        <v>0.01572216158108674</v>
       </c>
       <c r="F94">
-        <v>0.1581165731219772</v>
+        <v>0.01902250906433783</v>
       </c>
       <c r="G94">
-        <v>-0.09047009416405423</v>
+        <v>-0.1384951759405146</v>
       </c>
       <c r="H94">
-        <v>-0.06761814649292504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.06160045201057068</v>
+      </c>
+      <c r="I94">
+        <v>-0.03404060317350007</v>
+      </c>
+      <c r="J94">
+        <v>0.02636810692983282</v>
+      </c>
+      <c r="K94">
+        <v>-0.02890468585348263</v>
+      </c>
+      <c r="L94">
+        <v>-0.03401667152378648</v>
+      </c>
+      <c r="M94">
+        <v>0.003962717585597488</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.09699634889877422</v>
+        <v>0.1174499484340687</v>
       </c>
       <c r="C95">
-        <v>-0.06756981065201872</v>
+        <v>0.07747076023619637</v>
       </c>
       <c r="D95">
-        <v>0.06759912329294623</v>
+        <v>0.01913343033439436</v>
       </c>
       <c r="E95">
-        <v>0.04020764254832835</v>
+        <v>0.06640941941750925</v>
       </c>
       <c r="F95">
-        <v>-0.0607145093294529</v>
+        <v>-0.06063143685638452</v>
       </c>
       <c r="G95">
-        <v>-0.01022996165317186</v>
+        <v>0.2355803562959808</v>
       </c>
       <c r="H95">
-        <v>0.0102934455165387</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.05639373856198011</v>
+      </c>
+      <c r="I95">
+        <v>0.05600081374027963</v>
+      </c>
+      <c r="J95">
+        <v>0.07506975835984828</v>
+      </c>
+      <c r="K95">
+        <v>0.1253020534514827</v>
+      </c>
+      <c r="L95">
+        <v>-0.1230799007335373</v>
+      </c>
+      <c r="M95">
+        <v>0.4724074964930172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.0001942890416738395</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>9.43499628916584e-05</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0007873745769742119</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.002067854650210573</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0002743518431335512</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.0009051780748394017</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0008386108325531433</v>
+      </c>
+      <c r="I96">
+        <v>-0.0005542107601497977</v>
+      </c>
+      <c r="J96">
+        <v>0.004138281913578327</v>
+      </c>
+      <c r="K96">
+        <v>-0.002409825980638313</v>
+      </c>
+      <c r="L96">
+        <v>0.003297943652289945</v>
+      </c>
+      <c r="M96">
+        <v>-0.002449677047774964</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2402707187070149</v>
+        <v>0.1595382111723149</v>
       </c>
       <c r="C97">
-        <v>0.01335183299674239</v>
+        <v>0.001861602205487266</v>
       </c>
       <c r="D97">
-        <v>-0.8855495306720866</v>
+        <v>0.09272941049223724</v>
       </c>
       <c r="E97">
-        <v>-0.1329875980621419</v>
+        <v>-0.9265943261377512</v>
       </c>
       <c r="F97">
-        <v>-0.1172527531021807</v>
+        <v>-0.0235790797676478</v>
       </c>
       <c r="G97">
-        <v>0.03013892515559955</v>
+        <v>0.1326187356304183</v>
       </c>
       <c r="H97">
-        <v>0.01244770028600582</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.05538442929042236</v>
+      </c>
+      <c r="I97">
+        <v>0.06453537335999421</v>
+      </c>
+      <c r="J97">
+        <v>-0.027488506811469</v>
+      </c>
+      <c r="K97">
+        <v>-0.02987749670711491</v>
+      </c>
+      <c r="L97">
+        <v>0.0006135267352564611</v>
+      </c>
+      <c r="M97">
+        <v>0.03347864197914818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.296999854106363</v>
+        <v>0.2555269681347282</v>
       </c>
       <c r="C98">
-        <v>-0.1155983770204497</v>
+        <v>0.1184170745500862</v>
       </c>
       <c r="D98">
-        <v>0.1509321949605439</v>
+        <v>0.009055429648418415</v>
       </c>
       <c r="E98">
-        <v>-0.2430236534610214</v>
+        <v>0.01024140141822644</v>
       </c>
       <c r="F98">
-        <v>-0.470362258122773</v>
+        <v>0.4784009463307594</v>
       </c>
       <c r="G98">
-        <v>-0.3826641263783082</v>
+        <v>0.2038022979429309</v>
       </c>
       <c r="H98">
-        <v>0.3535042469275274</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.0430617263580943</v>
+      </c>
+      <c r="I98">
+        <v>-0.1309106051860676</v>
+      </c>
+      <c r="J98">
+        <v>-0.3302670796009356</v>
+      </c>
+      <c r="K98">
+        <v>0.5041054259937148</v>
+      </c>
+      <c r="L98">
+        <v>0.2435143546032549</v>
+      </c>
+      <c r="M98">
+        <v>-0.03522408421939791</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06624111285718451</v>
+        <v>0.06797073282030228</v>
       </c>
       <c r="C99">
-        <v>-0.0466766358088537</v>
+        <v>0.0556025791392679</v>
       </c>
       <c r="D99">
-        <v>0.02823551111368593</v>
+        <v>0.009316083405308572</v>
       </c>
       <c r="E99">
-        <v>0.001831191204407849</v>
+        <v>0.0317358051924871</v>
       </c>
       <c r="F99">
-        <v>-0.01898229572581885</v>
+        <v>0.01235950131697457</v>
       </c>
       <c r="G99">
-        <v>-0.003848096365272</v>
+        <v>-0.01547220657189495</v>
       </c>
       <c r="H99">
-        <v>0.08903620899956884</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.01136956464342655</v>
+      </c>
+      <c r="I99">
+        <v>0.01862730119317177</v>
+      </c>
+      <c r="J99">
+        <v>-0.03801828961709519</v>
+      </c>
+      <c r="K99">
+        <v>-0.03420248228749013</v>
+      </c>
+      <c r="L99">
+        <v>0.04650680291255253</v>
+      </c>
+      <c r="M99">
+        <v>0.0823493637001544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3303,36 +4803,66 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.0530008907746015</v>
+        <v>0.04002689831699219</v>
       </c>
       <c r="C101">
-        <v>-0.01842387490133034</v>
+        <v>0.02949063998255896</v>
       </c>
       <c r="D101">
-        <v>0.01210210941132303</v>
+        <v>-0.003349957427406697</v>
       </c>
       <c r="E101">
-        <v>0.02640704390090166</v>
+        <v>0.02178266427818172</v>
       </c>
       <c r="F101">
-        <v>0.005227855859417063</v>
+        <v>-0.05434469068817727</v>
       </c>
       <c r="G101">
-        <v>-0.011198501675588</v>
+        <v>-0.01468366119559902</v>
       </c>
       <c r="H101">
-        <v>-0.005457359474323678</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.01863354282500562</v>
+      </c>
+      <c r="I101">
+        <v>-0.02228036498812584</v>
+      </c>
+      <c r="J101">
+        <v>0.01973052619127856</v>
+      </c>
+      <c r="K101">
+        <v>0.07573705299493988</v>
+      </c>
+      <c r="L101">
+        <v>-0.01662911624477794</v>
+      </c>
+      <c r="M101">
+        <v>0.008716887049352863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
